--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC RestCafe.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC RestCafe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\IC POS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\IC POS 2020 MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D208CFB-C7F0-4EC5-A62F-9EDC12174BC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED3584-6975-4FFC-9DE9-AB5B3A66D6C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,8 +17,8 @@
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HoReCa Bar Tavern_Night Club'!$A$1:$AO$37</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Bar Tavern_Night Club'!$A$1:$AO$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HoReCa Bar Tavern_Night Club'!$A$1:$AP$37</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Bar Tavern_Night Club'!$A$1:$AP$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="180">
   <si>
     <t>Sorting</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
   </si>
 </sst>
 </file>
@@ -1225,11 +1228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM37"/>
+  <dimension ref="A1:AMN37"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1244,20 +1247,20 @@
     <col min="8" max="8" width="35.3984375" style="5"/>
     <col min="9" max="9" width="21.8984375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.3984375" style="5" customWidth="1"/>
-    <col min="11" max="28" width="8.69921875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="83.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="8.69921875" style="5" customWidth="1"/>
-    <col min="37" max="37" width="37.3984375" style="5"/>
-    <col min="38" max="38" width="9.5" style="5"/>
-    <col min="39" max="39" width="11.09765625" style="5"/>
-    <col min="40" max="40" width="13.5" style="5"/>
-    <col min="41" max="41" width="11.59765625" style="5"/>
-    <col min="42" max="1027" width="11.09765625" style="5"/>
-    <col min="1028" max="16384" width="8.69921875" style="6"/>
+    <col min="11" max="29" width="8.69921875" style="5" customWidth="1"/>
+    <col min="30" max="30" width="83.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="8.69921875" style="5" customWidth="1"/>
+    <col min="38" max="38" width="37.3984375" style="5"/>
+    <col min="39" max="39" width="9.5" style="5"/>
+    <col min="40" max="40" width="11.09765625" style="5"/>
+    <col min="41" max="41" width="13.5" style="5"/>
+    <col min="42" max="42" width="11.59765625" style="5"/>
+    <col min="43" max="1028" width="11.09765625" style="5"/>
+    <col min="1029" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,71 +1321,74 @@
       <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1430,22 +1436,23 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="9"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="10">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="10">
         <v>1</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AN2" s="10">
         <v>300</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
     </row>
-    <row r="3" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1486,7 +1493,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="7"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -1498,27 +1505,28 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="7"/>
+      <c r="AI3" s="9"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7">
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7">
         <v>2</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AN3" s="7">
         <v>1</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AP3" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1561,47 +1569,48 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="10"/>
+      <c r="V4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AI4" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7">
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7">
         <v>3</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AN4" s="7">
         <v>2</v>
       </c>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7">
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1644,47 +1653,48 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="10"/>
+      <c r="V5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="7" t="s">
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AI5" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="7">
-        <v>3</v>
-      </c>
+      <c r="AL5" s="7"/>
       <c r="AM5" s="7">
         <v>3</v>
       </c>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7">
+      <c r="AN5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1727,47 +1737,48 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="10"/>
+      <c r="V6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AI6" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
-      <c r="AL6" s="7">
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7">
         <v>3</v>
       </c>
-      <c r="AM6" s="7">
+      <c r="AN6" s="7">
         <v>4</v>
       </c>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7">
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1810,47 +1821,48 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="10"/>
+      <c r="V7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="7" t="s">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AI7" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
-      <c r="AL7" s="7">
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7">
         <v>3</v>
       </c>
-      <c r="AM7" s="7">
+      <c r="AN7" s="7">
         <v>5</v>
       </c>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7">
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1893,47 +1905,48 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="10"/>
+      <c r="V8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="7" t="s">
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="7" t="s">
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AI8" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="7">
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7">
         <v>3</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AN8" s="7">
         <v>6</v>
       </c>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7">
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1976,47 +1989,48 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="10"/>
+      <c r="V9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="7" t="s">
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
-      <c r="AG9" s="7" t="s">
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AI9" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7">
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7">
         <v>3</v>
       </c>
-      <c r="AM9" s="7">
+      <c r="AN9" s="7">
         <v>7</v>
       </c>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7">
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2059,47 +2073,48 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="10"/>
+      <c r="V10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="7" t="s">
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AI10" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7">
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7">
         <v>3</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AN10" s="7">
         <v>8</v>
       </c>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7">
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2140,41 +2155,42 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="7" t="s">
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="7"/>
+      <c r="AI11" s="9"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7">
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7">
         <v>2</v>
       </c>
-      <c r="AM11" s="7">
+      <c r="AN11" s="7">
         <v>9</v>
       </c>
-      <c r="AN11" s="12" t="s">
+      <c r="AO11" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AP11" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2217,47 +2233,48 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="10"/>
+      <c r="V12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="7" t="s">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="7" t="s">
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="7" t="s">
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AI12" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="7"/>
+      <c r="AJ12" s="14"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7">
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7">
         <v>3</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AN12" s="7">
         <v>10</v>
       </c>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7">
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2300,47 +2317,48 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="10"/>
+      <c r="V13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="7" t="s">
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="7" t="s">
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="7" t="s">
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AI13" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="7"/>
+      <c r="AJ13" s="14"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7">
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7">
         <v>3</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AN13" s="7">
         <v>11</v>
       </c>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7">
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2381,41 +2399,42 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="10"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="7" t="s">
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="7" t="s">
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="7"/>
+      <c r="AI14" s="9"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7">
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7">
         <v>2</v>
       </c>
-      <c r="AM14" s="7">
+      <c r="AN14" s="7">
         <v>12</v>
       </c>
-      <c r="AN14" s="12" t="s">
+      <c r="AO14" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AP14" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2458,47 +2477,48 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="10"/>
+      <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="7" t="s">
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="7" t="s">
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="7" t="s">
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AI15" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7">
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7">
         <v>3</v>
       </c>
-      <c r="AM15" s="7">
+      <c r="AN15" s="7">
         <v>13</v>
       </c>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7">
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2541,47 +2561,48 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="10"/>
+      <c r="V16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="W16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="7" t="s">
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7" t="s">
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="7" t="s">
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AI16" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7">
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7">
         <v>3</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AN16" s="7">
         <v>14</v>
       </c>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7">
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2624,47 +2645,48 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="10"/>
+      <c r="V17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="W17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="7" t="s">
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7" t="s">
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="7" t="s">
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AI17" s="9">
         <v>0.04</v>
       </c>
-      <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7">
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7">
         <v>3</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="AN17" s="7">
         <v>15</v>
       </c>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7">
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2705,41 +2727,42 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="7" t="s">
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="7" t="s">
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="7"/>
+      <c r="AI18" s="9"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7">
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7">
         <v>2</v>
       </c>
-      <c r="AM18" s="7">
+      <c r="AN18" s="7">
         <v>16</v>
       </c>
-      <c r="AN18" s="12" t="s">
+      <c r="AO18" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AP18" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2782,47 +2805,48 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="6"/>
+      <c r="V19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="W19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="7" t="s">
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="17" t="s">
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AI19" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7">
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7">
         <v>3</v>
       </c>
-      <c r="AM19" s="7">
+      <c r="AN19" s="7">
         <v>17</v>
       </c>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7">
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2865,47 +2889,48 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="6"/>
+      <c r="V20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="W20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7" t="s">
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="17" t="s">
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AI20" s="9">
         <v>0.03</v>
       </c>
-      <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7">
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7">
         <v>3</v>
       </c>
-      <c r="AM20" s="7">
+      <c r="AN20" s="7">
         <v>18</v>
       </c>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7">
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2953,22 +2978,23 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="9"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="10">
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="10">
         <v>1</v>
       </c>
-      <c r="AM21" s="10">
+      <c r="AN21" s="10">
         <v>400</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AO21" s="11">
         <v>19</v>
       </c>
-      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
     </row>
-    <row r="22" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3016,24 +3042,25 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="9"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="10">
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="10">
         <v>1</v>
       </c>
-      <c r="AM22" s="10">
+      <c r="AN22" s="10">
         <v>19</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AO22" s="7">
         <v>20</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AP22" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3079,36 +3106,37 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="7" t="s">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="14" t="s">
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AI23" s="9">
         <v>0.1</v>
       </c>
-      <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7">
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7">
         <v>2</v>
       </c>
-      <c r="AM23" s="7">
+      <c r="AN23" s="7">
         <v>20</v>
       </c>
-      <c r="AN23" s="12" t="s">
+      <c r="AO23" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AP23" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3147,45 +3175,46 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="7"/>
+      <c r="V24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="W24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7" t="s">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="20" t="s">
+      <c r="AD24" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
-      <c r="AG24" s="14" t="s">
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="7"/>
+      <c r="AI24" s="9"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7">
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7">
         <v>3</v>
       </c>
-      <c r="AM24" s="7">
+      <c r="AN24" s="7">
         <v>21</v>
       </c>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7">
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3230,45 +3259,46 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="7"/>
+      <c r="V25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V25" s="7" t="s">
+      <c r="W25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="14" t="s">
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="7"/>
+      <c r="AI25" s="9"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="7" t="s">
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AL25" s="7">
+      <c r="AM25" s="7">
         <v>3</v>
       </c>
-      <c r="AM25" s="7">
+      <c r="AN25" s="7">
         <v>22</v>
       </c>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7">
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -3311,45 +3341,46 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="7"/>
+      <c r="V26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V26" s="7" t="s">
+      <c r="W26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7" t="s">
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="14" t="s">
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="7"/>
+      <c r="AI26" s="9"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="7" t="s">
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AL26" s="7">
+      <c r="AM26" s="7">
         <v>3</v>
       </c>
-      <c r="AM26" s="7">
+      <c r="AN26" s="7">
         <v>23</v>
       </c>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7">
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3397,22 +3428,23 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="9"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="10">
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="10">
         <v>1</v>
       </c>
-      <c r="AM27" s="10">
+      <c r="AN27" s="10">
         <v>500</v>
       </c>
-      <c r="AN27" s="11" t="s">
+      <c r="AO27" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
     </row>
-    <row r="28" spans="1:1027" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1028" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3457,47 +3489,48 @@
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="7"/>
+      <c r="V28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="7" t="s">
+      <c r="W28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7" t="s">
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC28" s="7" t="s">
+      <c r="AD28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="7" t="s">
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AI28" s="9">
         <v>0.15</v>
       </c>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7">
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7">
         <v>2</v>
       </c>
-      <c r="AM28" s="7">
+      <c r="AN28" s="7">
         <v>24</v>
       </c>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7">
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:1027" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1028" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3536,47 +3569,48 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7" t="s">
+      <c r="U29" s="7"/>
+      <c r="V29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="7" t="s">
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AB29" s="7" t="s">
+      <c r="AC29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
-      <c r="AG29" s="7" t="s">
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH29" s="9">
+      <c r="AI29" s="9">
         <v>0.1</v>
       </c>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7">
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7">
         <v>2</v>
       </c>
-      <c r="AM29" s="7">
+      <c r="AN29" s="7">
         <v>25</v>
       </c>
-      <c r="AN29" s="12" t="s">
+      <c r="AO29" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AO29" s="7">
+      <c r="AP29" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1028" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3615,44 +3649,44 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="7"/>
+      <c r="V30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="6"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="6"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7" t="s">
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AD30" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="7" t="s">
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="7"/>
+      <c r="AI30" s="24"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="7">
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7">
         <v>3</v>
       </c>
-      <c r="AM30" s="7">
+      <c r="AN30" s="7">
         <v>26</v>
       </c>
-      <c r="AN30" s="12" t="s">
+      <c r="AO30" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AO30" s="7">
+      <c r="AP30" s="7">
         <v>25</v>
       </c>
-      <c r="AP30" s="25"/>
       <c r="AQ30" s="25"/>
       <c r="AR30" s="25"/>
       <c r="AS30" s="25"/>
@@ -4637,9 +4671,10 @@
       <c r="AMJ30" s="25"/>
       <c r="AMK30" s="25"/>
       <c r="AML30" s="25"/>
-      <c r="AMM30" s="6"/>
+      <c r="AMM30" s="25"/>
+      <c r="AMN30" s="6"/>
     </row>
-    <row r="31" spans="1:1027" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1028" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -4684,45 +4719,46 @@
       <c r="T31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="7"/>
+      <c r="V31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="W31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="6"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="6"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7" t="s">
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC31" s="20" t="s">
+      <c r="AD31" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="7" t="s">
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="7">
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7">
         <v>4</v>
       </c>
-      <c r="AM31" s="7">
+      <c r="AN31" s="7">
         <v>27</v>
       </c>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7">
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1027" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1028" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -4767,47 +4803,48 @@
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="7" t="s">
+      <c r="U32" s="7"/>
+      <c r="V32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="W32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W32" s="7"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="6"/>
+      <c r="Y32" s="7"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7" t="s">
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AD32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="7" t="s">
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="7" t="s">
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AL32" s="7">
+      <c r="AM32" s="7">
         <v>4</v>
       </c>
-      <c r="AM32" s="7">
+      <c r="AN32" s="7">
         <v>28</v>
       </c>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7">
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1027" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1028" s="28" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -4846,41 +4883,41 @@
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
-      <c r="U33" s="27" t="s">
+      <c r="U33" s="27"/>
+      <c r="V33" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="V33" s="27"/>
       <c r="W33" s="27"/>
       <c r="X33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27" t="s">
+      <c r="Y33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AC33" s="29" t="s">
+      <c r="AD33" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
-      <c r="AG33" s="27" t="s">
+      <c r="AF33" s="27"/>
+      <c r="AH33" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="27"/>
+      <c r="AI33" s="30"/>
       <c r="AJ33" s="27"/>
       <c r="AK33" s="27"/>
-      <c r="AL33" s="27">
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27">
         <v>3</v>
       </c>
-      <c r="AM33" s="27">
+      <c r="AN33" s="27">
         <v>29</v>
       </c>
-      <c r="AN33" s="31" t="s">
+      <c r="AO33" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AO33" s="27">
+      <c r="AP33" s="27">
         <v>25</v>
       </c>
-      <c r="AP33" s="32"/>
       <c r="AQ33" s="32"/>
       <c r="AR33" s="32"/>
       <c r="AS33" s="32"/>
@@ -5865,8 +5902,9 @@
       <c r="AMJ33" s="32"/>
       <c r="AMK33" s="32"/>
       <c r="AML33" s="32"/>
+      <c r="AMM33" s="32"/>
     </row>
-    <row r="34" spans="1:1027" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1028" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -5911,41 +5949,41 @@
       <c r="T34" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="U34" s="27" t="s">
+      <c r="U34" s="7"/>
+      <c r="V34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="V34" s="27" t="s">
+      <c r="W34" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="W34" s="27"/>
       <c r="X34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27" t="s">
+      <c r="Y34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AC34" s="29" t="s">
+      <c r="AD34" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
-      <c r="AG34" s="27" t="s">
+      <c r="AF34" s="27"/>
+      <c r="AH34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AH34" s="27"/>
       <c r="AI34" s="27"/>
       <c r="AJ34" s="27"/>
       <c r="AK34" s="27"/>
-      <c r="AL34" s="27">
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27">
         <v>4</v>
       </c>
-      <c r="AM34" s="27">
+      <c r="AN34" s="27">
         <v>30</v>
       </c>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27">
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27">
         <v>29</v>
       </c>
-      <c r="AP34" s="33"/>
       <c r="AQ34" s="33"/>
       <c r="AR34" s="33"/>
       <c r="AS34" s="33"/>
@@ -6931,8 +6969,9 @@
       <c r="AMK34" s="33"/>
       <c r="AML34" s="33"/>
       <c r="AMM34" s="33"/>
+      <c r="AMN34" s="33"/>
     </row>
-    <row r="35" spans="1:1027" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1028" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -6977,42 +7016,42 @@
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
-      <c r="U35" s="27" t="s">
+      <c r="U35" s="27"/>
+      <c r="V35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="V35" s="27" t="s">
+      <c r="W35" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="W35" s="27"/>
       <c r="X35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27" t="s">
+      <c r="Y35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AC35" s="29" t="s">
+      <c r="AD35" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
-      <c r="AG35" s="27" t="s">
+      <c r="AF35" s="27"/>
+      <c r="AH35" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AH35" s="27"/>
       <c r="AI35" s="27"/>
-      <c r="AK35" s="27" t="s">
+      <c r="AJ35" s="27"/>
+      <c r="AL35" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AL35" s="27">
+      <c r="AM35" s="27">
         <v>4</v>
       </c>
-      <c r="AM35" s="27">
+      <c r="AN35" s="27">
         <v>31</v>
       </c>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="27">
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27">
         <v>29</v>
       </c>
-      <c r="AP35" s="33"/>
       <c r="AQ35" s="33"/>
       <c r="AR35" s="33"/>
       <c r="AS35" s="33"/>
@@ -7998,8 +8037,9 @@
       <c r="AMK35" s="33"/>
       <c r="AML35" s="33"/>
       <c r="AMM35" s="33"/>
+      <c r="AMN35" s="33"/>
     </row>
-    <row r="36" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -8038,47 +8078,48 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="7"/>
+      <c r="V36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7" t="s">
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC36" s="7" t="s">
+      <c r="AD36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="7" t="s">
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH36" s="9">
+      <c r="AI36" s="9">
         <v>0.15</v>
       </c>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="7"/>
+      <c r="AJ36" s="14"/>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7">
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7">
         <v>2</v>
       </c>
-      <c r="AM36" s="7">
+      <c r="AN36" s="7">
         <v>32</v>
       </c>
-      <c r="AN36" s="12">
+      <c r="AO36" s="12">
         <v>33</v>
       </c>
-      <c r="AO36" s="7">
+      <c r="AP36" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:1027" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1028" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -8125,46 +8166,47 @@
       <c r="T37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" s="7"/>
+      <c r="V37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="W37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7" t="s">
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AC37" s="7" t="s">
+      <c r="AD37" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="7" t="s">
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="7"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="14"/>
       <c r="AK37" s="7"/>
-      <c r="AL37" s="7">
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7">
         <v>3</v>
       </c>
-      <c r="AM37" s="7">
+      <c r="AN37" s="7">
         <v>33</v>
       </c>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7">
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
